--- a/data/trans_dic/P8_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,93; 19,84</t>
+          <t>11,75; 20,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,78; 22,89</t>
+          <t>13,66; 22,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 19,84</t>
+          <t>12,14; 20,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,39; 23,88</t>
+          <t>14,24; 24,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,68; 33,33</t>
+          <t>21,31; 32,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,82; 23,79</t>
+          <t>16,94; 23,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,04; 20,94</t>
+          <t>14,11; 20,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,87; 26,16</t>
+          <t>18,91; 25,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 20,87</t>
+          <t>15,56; 20,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,58; 17,11</t>
+          <t>11,04; 17,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,0</t>
+          <t>11,58; 18,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,87</t>
+          <t>8,91; 14,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,93; 23,27</t>
+          <t>15,66; 23,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,11; 28,23</t>
+          <t>21,06; 29,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,12; 29,79</t>
+          <t>21,74; 29,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,82; 25,27</t>
+          <t>17,63; 25,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,19; 28,55</t>
+          <t>21,72; 27,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,93; 21,89</t>
+          <t>16,9; 21,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 23,21</t>
+          <t>17,97; 23,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 19,28</t>
+          <t>14,53; 19,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,7; 24,78</t>
+          <t>19,71; 24,8</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 15,01</t>
+          <t>8,36; 15,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 20,48</t>
+          <t>12,28; 20,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 16,78</t>
+          <t>9,98; 16,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,88; 19,04</t>
+          <t>11,62; 18,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,84; 30,29</t>
+          <t>20,9; 30,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,75; 27,82</t>
+          <t>18,96; 28,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,04; 23,7</t>
+          <t>14,59; 23,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 22,99</t>
+          <t>16,5; 23,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,87; 21,67</t>
+          <t>15,8; 21,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 22,96</t>
+          <t>16,77; 23,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,17; 18,95</t>
+          <t>13,37; 19,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,06; 19,79</t>
+          <t>15,11; 19,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 16,69</t>
+          <t>9,43; 16,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 19,24</t>
+          <t>12,9; 18,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,78; 19,29</t>
+          <t>11,75; 19,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,34; 24,05</t>
+          <t>14,48; 23,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,17; 27,97</t>
+          <t>18,97; 27,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,59; 32,68</t>
+          <t>25,96; 33,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,88; 31,3</t>
+          <t>21,82; 31,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,16; 24,11</t>
+          <t>17,2; 24,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,54; 21,07</t>
+          <t>15,43; 21,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,48; 24,99</t>
+          <t>20,31; 24,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,85; 24,15</t>
+          <t>18,12; 24,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,11; 22,69</t>
+          <t>17,14; 22,5</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,63</t>
+          <t>6,02; 13,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,39; 23,29</t>
+          <t>12,56; 23,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 17,47</t>
+          <t>8,82; 18,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,23; 16,52</t>
+          <t>9,02; 16,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 24,57</t>
+          <t>13,49; 24,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,72; 36,85</t>
+          <t>24,97; 37,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,6; 27,93</t>
+          <t>16,56; 27,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,76; 29,17</t>
+          <t>17,26; 29,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,93; 17,55</t>
+          <t>10,81; 17,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,27; 28,88</t>
+          <t>20,5; 28,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,76; 21,14</t>
+          <t>13,5; 20,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,52; 22,14</t>
+          <t>15,33; 22,24</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,55; 20,28</t>
+          <t>11,29; 19,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,51; 25,17</t>
+          <t>15,49; 25,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,25; 25,77</t>
+          <t>15,71; 25,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,43</t>
+          <t>9,71; 16,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,6; 31,82</t>
+          <t>20,99; 31,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,86; 33,37</t>
+          <t>22,88; 33,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,29; 35,82</t>
+          <t>24,64; 36,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,27; 23,31</t>
+          <t>16,56; 23,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,59; 24,34</t>
+          <t>17,11; 24,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,23; 27,55</t>
+          <t>20,98; 28,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,44; 29,2</t>
+          <t>21,84; 29,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,0; 18,5</t>
+          <t>14,26; 18,65</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,68; 18,68</t>
+          <t>12,93; 18,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,76</t>
+          <t>10,28; 15,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,59; 19,59</t>
+          <t>13,56; 19,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,18; 20,53</t>
+          <t>14,12; 20,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,97; 26,61</t>
+          <t>20,06; 26,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,79; 28,57</t>
+          <t>21,41; 28,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,66; 26,59</t>
+          <t>20,32; 26,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,7; 26,64</t>
+          <t>13,53; 26,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,26; 21,58</t>
+          <t>17,09; 21,46</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,05; 21,78</t>
+          <t>16,92; 21,49</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,6; 22,13</t>
+          <t>17,42; 22,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,99; 22,39</t>
+          <t>14,76; 22,45</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,29; 17,53</t>
+          <t>12,26; 17,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,44; 18,99</t>
+          <t>13,37; 18,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,03; 14,65</t>
+          <t>10,0; 14,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,01; 34,44</t>
+          <t>12,16; 36,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,48; 26,67</t>
+          <t>20,47; 26,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,14; 25,32</t>
+          <t>19,47; 25,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,82; 22,53</t>
+          <t>16,72; 22,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,32; 27,01</t>
+          <t>21,19; 26,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,16; 21,17</t>
+          <t>17,06; 21,32</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,55</t>
+          <t>17,14; 21,35</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,01; 17,93</t>
+          <t>14,31; 17,93</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,01; 29,25</t>
+          <t>18,15; 30,33</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,69; 15,11</t>
+          <t>12,77; 15,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,92</t>
+          <t>14,47; 16,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,37; 15,71</t>
+          <t>13,31; 15,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,74</t>
+          <t>15,04; 21,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,79</t>
+          <t>21,88; 24,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,35; 27,28</t>
+          <t>24,17; 27,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,44; 24,46</t>
+          <t>21,26; 24,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,25; 23,74</t>
+          <t>19,82; 23,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,67; 19,66</t>
+          <t>17,74; 19,55</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,85; 21,87</t>
+          <t>19,82; 21,9</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,78; 19,74</t>
+          <t>17,86; 19,71</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,63; 21,71</t>
+          <t>18,57; 21,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,75; 20,14</t>
+          <t>11,84; 20,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,66; 22,83</t>
+          <t>13,16; 23,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,24; 24,07</t>
+          <t>14,76; 24,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,31; 32,84</t>
+          <t>21,85; 32,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,51</t>
+          <t>13,72; 20,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,91; 25,97</t>
+          <t>18,98; 26,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 17,06</t>
+          <t>10,73; 16,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 18,46</t>
+          <t>11,75; 18,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,91; 14,94</t>
+          <t>9,15; 15,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,06; 29,1</t>
+          <t>20,71; 28,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,74; 29,72</t>
+          <t>21,97; 29,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,63; 25,2</t>
+          <t>18,23; 25,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,9; 21,69</t>
+          <t>16,98; 21,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,97; 23,33</t>
+          <t>17,84; 23,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,53; 19,19</t>
+          <t>14,36; 19,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 15,45</t>
+          <t>8,33; 15,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,28; 20,9</t>
+          <t>12,55; 20,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,98; 16,92</t>
+          <t>9,76; 16,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,9; 30,5</t>
+          <t>20,85; 29,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,96; 28,73</t>
+          <t>18,4; 28,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,59; 23,79</t>
+          <t>14,82; 24,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,8; 21,97</t>
+          <t>15,7; 21,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,77; 23,15</t>
+          <t>16,67; 22,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,37; 19,5</t>
+          <t>13,31; 19,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,43; 16,38</t>
+          <t>9,55; 16,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,9; 18,77</t>
+          <t>12,86; 18,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 19,48</t>
+          <t>11,5; 19,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,97; 27,67</t>
+          <t>18,86; 27,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,96; 33,04</t>
+          <t>25,86; 32,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,82; 31,3</t>
+          <t>22,26; 32,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,43; 21,31</t>
+          <t>15,45; 21,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,31; 24,91</t>
+          <t>20,46; 25,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,12; 24,13</t>
+          <t>18,05; 24,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,02; 13,44</t>
+          <t>5,81; 13,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,56; 23,24</t>
+          <t>12,3; 23,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 18,16</t>
+          <t>8,74; 17,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,49; 24,92</t>
+          <t>13,67; 24,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,97; 37,2</t>
+          <t>24,42; 37,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,56; 27,93</t>
+          <t>16,77; 28,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,81; 17,91</t>
+          <t>10,86; 17,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,5; 28,41</t>
+          <t>20,06; 28,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,5; 20,77</t>
+          <t>14,07; 21,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,29; 19,92</t>
+          <t>11,53; 20,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,49; 25,17</t>
+          <t>15,46; 24,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,71; 25,97</t>
+          <t>15,77; 25,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,99; 31,55</t>
+          <t>20,77; 31,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,88; 33,94</t>
+          <t>23,11; 34,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,64; 36,11</t>
+          <t>24,69; 36,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,11; 24,06</t>
+          <t>17,48; 24,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,98; 28,16</t>
+          <t>20,41; 27,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,84; 29,36</t>
+          <t>21,62; 29,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,93; 18,62</t>
+          <t>12,92; 18,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,28; 15,62</t>
+          <t>10,26; 15,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,56</t>
+          <t>13,72; 19,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,06; 26,72</t>
+          <t>19,93; 26,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,41; 28,57</t>
+          <t>21,92; 28,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,32; 26,9</t>
+          <t>19,72; 26,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>17,23; 21,69</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
           <t>17,09; 21,46</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>16,92; 21,49</t>
-        </is>
-      </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,42; 22,18</t>
+          <t>17,54; 22,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,26; 17,22</t>
+          <t>11,89; 17,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,37; 18,77</t>
+          <t>13,36; 18,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,0; 14,68</t>
+          <t>10,17; 14,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,47; 26,66</t>
+          <t>20,5; 26,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,47; 25,18</t>
+          <t>19,3; 25,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,72; 22,48</t>
+          <t>16,66; 22,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,06; 21,32</t>
+          <t>17,2; 21,23</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17,14; 21,35</t>
+          <t>17,1; 21,5</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,31; 17,93</t>
+          <t>14,11; 17,84</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,32</t>
+          <t>12,77; 15,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,47; 16,97</t>
+          <t>14,3; 16,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,76</t>
+          <t>13,29; 15,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,88; 24,69</t>
+          <t>21,78; 24,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,17; 27,18</t>
+          <t>24,22; 27,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,26; 24,24</t>
+          <t>21,39; 24,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,74; 19,55</t>
+          <t>17,8; 19,68</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,82; 21,9</t>
+          <t>19,77; 21,78</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,86; 19,71</t>
+          <t>17,73; 19,66</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P8_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 20,94</t>
+          <t>10,93; 19,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,16; 23,04</t>
+          <t>13,78; 22,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,14; 20,4</t>
+          <t>11,87; 19,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,76; 24,99</t>
+          <t>14,39; 23,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,85; 32,33</t>
+          <t>21,68; 33,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,94; 23,93</t>
+          <t>16,82; 23,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,72; 20,87</t>
+          <t>14,04; 20,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,98; 26,32</t>
+          <t>18,87; 26,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,56; 20,96</t>
+          <t>15,5; 20,87</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,73; 16,88</t>
+          <t>10,58; 17,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 18,44</t>
+          <t>11,97; 19,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,09</t>
+          <t>9,16; 14,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 23,54</t>
+          <t>15,93; 23,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,71; 28,01</t>
+          <t>21,11; 28,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,97; 29,92</t>
+          <t>22,12; 29,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,23; 25,55</t>
+          <t>17,82; 25,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,72; 27,91</t>
+          <t>22,19; 28,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,98; 21,87</t>
+          <t>16,93; 21,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,84; 23,12</t>
+          <t>17,9; 23,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,36; 19,31</t>
+          <t>14,51; 19,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,71; 24,8</t>
+          <t>19,7; 24,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,33; 15,49</t>
+          <t>8,25; 15,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 20,91</t>
+          <t>12,03; 20,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,76; 16,58</t>
+          <t>9,72; 16,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,62; 18,6</t>
+          <t>11,88; 19,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,85; 29,88</t>
+          <t>20,84; 30,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,4; 28,17</t>
+          <t>18,75; 27,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 24,23</t>
+          <t>15,04; 23,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,5; 23,3</t>
+          <t>16,55; 22,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,7; 21,51</t>
+          <t>15,87; 21,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,67; 22,91</t>
+          <t>16,75; 22,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 19,04</t>
+          <t>13,17; 18,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,11; 19,84</t>
+          <t>15,06; 19,79</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 16,53</t>
+          <t>9,57; 16,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,86; 18,69</t>
+          <t>13,13; 19,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 19,19</t>
+          <t>11,78; 19,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 23,91</t>
+          <t>14,34; 24,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,86; 27,37</t>
+          <t>19,17; 27,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,86; 32,56</t>
+          <t>25,59; 32,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,26; 32,2</t>
+          <t>21,88; 31,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 24,15</t>
+          <t>17,16; 24,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,45; 21,2</t>
+          <t>15,54; 21,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,46; 25,04</t>
+          <t>20,48; 24,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,05; 24,06</t>
+          <t>17,85; 24,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,14; 22,5</t>
+          <t>17,11; 22,69</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,81; 13,38</t>
+          <t>5,88; 13,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,3; 23,62</t>
+          <t>12,39; 23,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,74; 17,29</t>
+          <t>8,88; 17,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 16,61</t>
+          <t>9,23; 16,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,67; 24,73</t>
+          <t>13,41; 24,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,42; 37,26</t>
+          <t>24,72; 36,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,77; 28,45</t>
+          <t>16,6; 27,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,26; 29,09</t>
+          <t>16,76; 29,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,86; 17,66</t>
+          <t>10,93; 17,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,06; 28,92</t>
+          <t>20,27; 28,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,07; 21,58</t>
+          <t>13,76; 21,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 22,24</t>
+          <t>15,52; 22,14</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,53; 20,57</t>
+          <t>11,55; 20,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,46; 24,71</t>
+          <t>15,51; 25,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,77; 25,7</t>
+          <t>16,25; 25,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,71; 16,2</t>
+          <t>10,01; 16,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,77; 31,39</t>
+          <t>20,6; 31,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,11; 34,08</t>
+          <t>22,86; 33,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,69; 36,25</t>
+          <t>24,29; 35,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,56; 23,49</t>
+          <t>16,27; 23,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,48; 24,53</t>
+          <t>17,59; 24,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,41; 27,72</t>
+          <t>20,23; 27,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,62; 29,53</t>
+          <t>21,44; 29,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,26; 18,65</t>
+          <t>14,0; 18,5</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,92; 18,48</t>
+          <t>12,68; 18,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,26; 15,77</t>
+          <t>10,32; 15,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,72; 19,64</t>
+          <t>13,59; 19,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,04</t>
+          <t>14,18; 20,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,93; 26,41</t>
+          <t>19,97; 26,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,92; 28,97</t>
+          <t>21,79; 28,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,72; 26,63</t>
+          <t>19,66; 26,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,53; 26,61</t>
+          <t>13,7; 26,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,23; 21,69</t>
+          <t>17,26; 21,58</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,09; 21,46</t>
+          <t>17,05; 21,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,54; 22,28</t>
+          <t>17,6; 22,13</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,76; 22,45</t>
+          <t>14,99; 22,39</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,89; 17,24</t>
+          <t>12,29; 17,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,36; 18,78</t>
+          <t>13,44; 18,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,17; 14,62</t>
+          <t>10,03; 14,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,16; 36,43</t>
+          <t>12,01; 34,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,5; 26,77</t>
+          <t>20,48; 26,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,3; 25,11</t>
+          <t>19,14; 25,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,64</t>
+          <t>16,82; 22,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,19; 26,59</t>
+          <t>21,32; 27,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,2; 21,23</t>
+          <t>17,16; 21,17</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17,1; 21,5</t>
+          <t>17,03; 21,55</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,11; 17,84</t>
+          <t>14,01; 17,93</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,15; 30,33</t>
+          <t>18,01; 29,25</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,2</t>
+          <t>12,69; 15,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,3; 16,85</t>
+          <t>14,32; 16,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,29; 15,7</t>
+          <t>13,37; 15,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,63</t>
+          <t>15,13; 21,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,78; 24,66</t>
+          <t>22,0; 24,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,22; 27,19</t>
+          <t>24,35; 27,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,39; 24,36</t>
+          <t>21,44; 24,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,82; 23,69</t>
+          <t>20,25; 23,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,8; 19,68</t>
+          <t>17,67; 19,66</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,77; 21,78</t>
+          <t>19,85; 21,87</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,73; 19,66</t>
+          <t>17,78; 19,74</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,57; 21,95</t>
+          <t>18,63; 21,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>16,88%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,7; 20,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 19,84</t>
+          <t>10,73; 18,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,7; 32,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,82; 23,79</t>
+          <t>16,09; 22,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,57; 24,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 20,87</t>
+          <t>14,4; 19,64</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>21,49%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,93; 23,27</t>
+          <t>15,03; 22,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,19; 28,55</t>
+          <t>21,88; 28,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,7; 24,78</t>
+          <t>19,04; 24,15</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>16,9%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,88; 19,04</t>
+          <t>11,46; 18,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 22,99</t>
+          <t>16,29; 22,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,06; 19,79</t>
+          <t>14,6; 19,22</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>17,74%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 19,24</t>
+          <t>12,25; 20,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,34; 24,05</t>
+          <t>13,87; 23,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,59; 32,68</t>
+          <t>26,72; 35,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,16; 24,11</t>
+          <t>9,93; 22,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,48; 24,99</t>
+          <t>20,63; 26,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,11; 22,69</t>
+          <t>12,81; 21,07</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>18,1%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,23; 16,52</t>
+          <t>9,22; 16,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,76; 29,17</t>
+          <t>12,43; 28,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,52; 22,14</t>
+          <t>12,28; 21,81</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,03%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,43</t>
+          <t>9,8; 16,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,27; 23,31</t>
+          <t>16,32; 23,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,0; 18,5</t>
+          <t>13,83; 18,29</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>17,95%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,18; 20,53</t>
+          <t>13,71; 20,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,7; 26,64</t>
+          <t>9,45; 26,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,99; 22,39</t>
+          <t>11,07; 21,53</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>30,7%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,01; 34,44</t>
+          <t>12,17; 69,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,32; 27,01</t>
+          <t>21,46; 27,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,01; 29,25</t>
+          <t>18,11; 56,54</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>21,05%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,74</t>
+          <t>14,87; 41,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,25; 23,74</t>
+          <t>16,66; 22,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,63; 21,71</t>
+          <t>17,85; 31,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,93; 19,84</t>
+          <t>11,84; 20,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 20,23</t>
+          <t>12,09; 20,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,78; 22,89</t>
+          <t>13,82; 23,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,73; 18,48</t>
+          <t>10,93; 18,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,39; 23,88</t>
+          <t>14,4; 24,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,7; 32,13</t>
+          <t>21,52; 31,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,68; 33,33</t>
+          <t>21,64; 32,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,09; 22,93</t>
+          <t>16,3; 23,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,04; 20,94</t>
+          <t>14,11; 20,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,57; 24,82</t>
+          <t>18,14; 24,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,87; 26,16</t>
+          <t>18,98; 26,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,4; 19,64</t>
+          <t>14,44; 19,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,58; 17,11</t>
+          <t>10,65; 17,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,0</t>
+          <t>11,84; 18,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,87</t>
+          <t>9,23; 15,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 22,23</t>
+          <t>14,96; 22,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,11; 28,23</t>
+          <t>20,92; 28,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,12; 29,79</t>
+          <t>21,89; 29,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,82; 25,27</t>
+          <t>17,7; 25,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,88; 28,21</t>
+          <t>21,37; 27,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,93; 21,89</t>
+          <t>16,45; 21,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 23,21</t>
+          <t>17,42; 23,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 19,28</t>
+          <t>14,33; 19,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,04; 24,15</t>
+          <t>19,22; 23,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 15,01</t>
+          <t>8,32; 15,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 20,48</t>
+          <t>11,89; 20,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 16,78</t>
+          <t>9,94; 16,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,46; 18,43</t>
+          <t>11,29; 18,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,84; 30,29</t>
+          <t>20,91; 30,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,75; 27,82</t>
+          <t>18,8; 28,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,04; 23,7</t>
+          <t>14,48; 24,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,29; 22,59</t>
+          <t>16,21; 22,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,87; 21,67</t>
+          <t>15,99; 22,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 22,96</t>
+          <t>16,59; 22,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,17; 18,95</t>
+          <t>13,52; 19,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,22</t>
+          <t>14,67; 19,11</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 16,69</t>
+          <t>9,46; 16,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,25; 20,08</t>
+          <t>12,22; 20,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,78; 19,29</t>
+          <t>11,69; 18,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 23,52</t>
+          <t>14,25; 23,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,17; 27,97</t>
+          <t>19,51; 27,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,72; 35,95</t>
+          <t>26,43; 36,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,88; 31,3</t>
+          <t>21,85; 31,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,93; 22,18</t>
+          <t>10,05; 21,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,54; 21,07</t>
+          <t>15,42; 21,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,63; 26,89</t>
+          <t>20,88; 27,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,85; 24,15</t>
+          <t>17,81; 24,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 21,07</t>
+          <t>12,87; 21,07</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,63</t>
+          <t>5,87; 13,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,39; 23,29</t>
+          <t>12,61; 23,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 17,47</t>
+          <t>8,63; 17,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,22; 16,43</t>
+          <t>8,93; 16,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 24,57</t>
+          <t>13,27; 24,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,72; 36,85</t>
+          <t>24,42; 37,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,6; 27,93</t>
+          <t>16,53; 27,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,43; 28,71</t>
+          <t>11,55; 28,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,93; 17,55</t>
+          <t>10,91; 17,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,27; 28,88</t>
+          <t>20,0; 28,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,76; 21,14</t>
+          <t>14,11; 21,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,28; 21,81</t>
+          <t>11,98; 21,56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,55; 20,28</t>
+          <t>11,51; 20,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,51; 25,17</t>
+          <t>15,48; 24,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,25; 25,77</t>
+          <t>15,88; 25,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,8; 16,14</t>
+          <t>9,99; 15,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,6; 31,82</t>
+          <t>20,71; 31,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,86; 33,37</t>
+          <t>22,58; 33,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,29; 35,82</t>
+          <t>24,11; 35,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,32; 23,39</t>
+          <t>16,33; 23,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,59; 24,34</t>
+          <t>17,55; 24,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,23; 27,55</t>
+          <t>20,79; 28,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,44; 29,2</t>
+          <t>21,78; 29,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,83; 18,29</t>
+          <t>13,82; 18,23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,68; 18,68</t>
+          <t>12,92; 18,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,76</t>
+          <t>10,36; 15,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,59; 19,59</t>
+          <t>13,37; 19,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,71; 20,21</t>
+          <t>13,47; 19,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,97; 26,61</t>
+          <t>19,93; 26,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,79; 28,57</t>
+          <t>21,84; 28,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,66; 26,59</t>
+          <t>19,95; 26,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,45; 26,13</t>
+          <t>9,8; 25,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,26; 21,58</t>
+          <t>17,22; 21,69</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,05; 21,78</t>
+          <t>17,12; 21,58</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,6; 22,13</t>
+          <t>17,71; 22,49</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,07; 21,53</t>
+          <t>11,09; 21,58</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,29; 17,53</t>
+          <t>12,24; 17,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,44; 18,99</t>
+          <t>13,36; 19,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,03; 14,65</t>
+          <t>10,2; 14,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,17; 69,07</t>
+          <t>12,32; 71,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,48; 26,67</t>
+          <t>20,46; 26,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,14; 25,32</t>
+          <t>19,22; 25,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,82; 22,53</t>
+          <t>16,77; 22,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,46; 27,07</t>
+          <t>21,41; 26,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,16; 21,17</t>
+          <t>17,3; 21,16</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,55</t>
+          <t>17,25; 21,33</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,01; 17,93</t>
+          <t>14,14; 18,03</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,11; 56,54</t>
+          <t>18,05; 57,0</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,69; 15,11</t>
+          <t>12,84; 15,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,92</t>
+          <t>14,38; 16,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,37; 15,71</t>
+          <t>13,3; 15,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,87; 41,87</t>
+          <t>14,82; 38,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,79</t>
+          <t>21,77; 24,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,35; 27,28</t>
+          <t>24,1; 27,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,44; 24,46</t>
+          <t>21,43; 24,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,77</t>
+          <t>16,9; 22,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,67; 19,66</t>
+          <t>17,7; 19,68</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,85; 21,87</t>
+          <t>19,75; 21,65</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,78; 19,74</t>
+          <t>17,69; 19,71</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17,85; 31,08</t>
+          <t>17,73; 31,44</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación a subir varios pisos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>42463</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>46659</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>52735</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>45220</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>49127</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>76990</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>77781</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>56234</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>91590</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>123649</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>130516</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>101454</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>32321; 55260</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35641; 61756</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>40609; 67941</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>34030; 58548</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>37569; 63161</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61829; 91879</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>62466; 93086</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>47199; 67050</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>75337; 110334</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>105557; 144423</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>110538; 153953</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>86782; 117045</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>67253</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>75100</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>59395</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>95155</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>123760</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>134191</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>112639</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>126950</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>191013</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>209291</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>172033</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>222105</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52526; 84650</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>59878; 95840</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>46406; 75603</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>77547; 116840</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>105440; 143539</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>114649; 155045</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>92591; 134439</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>110041; 142666</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>164024; 214870</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>179314; 238293</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>146990; 197300</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>198576; 247030</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36555</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>51813</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>41372</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>45359</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>85499</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>79176</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>63673</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66986</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>122054</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>130989</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>105046</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>112345</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26523; 49236</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38516; 67175</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31654; 53925</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>35687; 57239</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>70128; 100895</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>64097; 96035</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>48689; 80872</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56507; 78171</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>104638; 144119</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>110345; 151544</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>88536; 125967</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>97523; 126979</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>45795</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>58831</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>56078</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>57280</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>86408</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>121324</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>102714</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>82549</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>132203</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>180155</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>158792</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>139829</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>33924; 59411</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>45683; 76695</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>43255; 69978</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>44533; 73387</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>72475; 103590</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>102788; 140573</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>84632; 122219</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>47789; 104630</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>112574; 155764</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>159287; 206712</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>134829; 184782</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>101487; 166070</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18830</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>36872</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26743</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22012</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>38760</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>67351</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>47664</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>57074</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>57590</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>104223</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>74407</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>79086</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11935; 27998</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>26806; 49367</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18222; 36629</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15953; 29046</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27559; 51498</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>53618; 81678</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36124; 60550</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29816; 72495</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>44847; 72540</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>86456; 124145</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>60667; 92533</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>52370; 94213</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>41746</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>54577</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>53808</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>34121</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>71624</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>78742</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>82584</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>50303</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>113370</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>133319</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>136392</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>84423</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>31159; 55419</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>42405; 68306</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>41796; 68345</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>26940; 42639</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>57608; 87379</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>62979; 93147</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>65861; 98012</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>41983; 59157</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>96360; 133210</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>114940; 155037</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>116782; 160365</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>72806; 96001</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>95103</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>84394</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>106658</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>102062</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>147235</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>175106</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>162239</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>242338</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>259499</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>266798</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>264301</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>79457; 113325</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>68366; 105136</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>87789; 129054</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>83994; 123152</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>127218; 168115</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>151519; 199869</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>137935; 183593</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>83216; 219580</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>215826; 271874</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>231752; 292088</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>238713; 303127</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>163278; 317771</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>108571</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>124517</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>95192</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>333452</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>183184</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>182836</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>161477</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>172067</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>291756</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>307352</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>256669</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>505519</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>91071; 128674</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>103984; 148542</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>79381; 115176</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>114454; 665411</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>160308; 207270</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>158372; 206400</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>138536; 186632</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>153677; 193159</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>264290; 323206</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>276252; 341701</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>226848; 289302</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>297195; 938463</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1226</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1331</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>456316</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>532763</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>491981</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>734659</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>785598</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>915715</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>808672</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>774402</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1241913</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1448478</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1300652</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1509061</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>420700; 495339</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>492333; 579094</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>451351; 536199</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>512669; 1328973</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>735747; 838704</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>857459; 969377</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>759547; 863753</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>627069; 843638</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1178324; 1310043</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1378450; 1511431</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1227561; 1367649</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1271347; 2254535</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>